--- a/biology/Botanique/Lasiochlamys_mandjeliana/Lasiochlamys_mandjeliana.xlsx
+++ b/biology/Botanique/Lasiochlamys_mandjeliana/Lasiochlamys_mandjeliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasiochlamys mandjeliana est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys, endémique de Nouvelle-Calédonie. L'espèce est vulnérable et est donc protégée.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite pour la première fois par Hermann Otto Sleumer en 1974, qui la classe dans le genre Lasiochlamys sous le nom correct Lasiochlamys mandjeliana[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite pour la première fois par Hermann Otto Sleumer en 1974, qui la classe dans le genre Lasiochlamys sous le nom correct Lasiochlamys mandjeliana.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 3 m. Les rameaux sont couverts de lenticelles pustuleuses. Les feuilles sont un peu coriaces, arrondies au sommet, en coin à la base ; leur bord est entier, un peu révoluté[5].
-Les fleurs sont blanchâtres, solitaires ou sur des fascicules de 5–10 fleurs. Les fruits sont globuleux ; ils contiennent 3 à 4 graines. La floraison et la fructification ont lieu entre septembre et novembre[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 3 m. Les rameaux sont couverts de lenticelles pustuleuses. Les feuilles sont un peu coriaces, arrondies au sommet, en coin à la base ; leur bord est entier, un peu révoluté.
+Les fleurs sont blanchâtres, solitaires ou sur des fascicules de 5–10 fleurs. Les fruits sont globuleux ; ils contiennent 3 à 4 graines. La floraison et la fructification ont lieu entre septembre et novembre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est connue que sur la Grande Terre (Nouvelle-Calédonie) sur les Massif du Mandjélia (Pouébo). Elle a pour habitat les sous-bois de la forêt dense humide, sur sol plus ou moins profond, sur micaschistes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est connue que sur la Grande Terre (Nouvelle-Calédonie) sur les Massif du Mandjélia (Pouébo). Elle a pour habitat les sous-bois de la forêt dense humide, sur sol plus ou moins profond, sur micaschistes.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » (VU) sur la Liste rouge de l'UICN. Elle est protégée en Province Nord (Nouvelle-Calédonie)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » (VU) sur la Liste rouge de l'UICN. Elle est protégée en Province Nord (Nouvelle-Calédonie).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) H. Sleumer, « A concise revision of the Flacourtiaceae of New Caledonia anf the Loyalty Islands », Blumea: Biodiversity, Evolution and Biogeography of Plants, vol. 22, no 1,‎ 1er janvier 1974, p. 128 (ISSN 2212-1676, lire en ligne, consulté le 7 janvier 2021)</t>
         </is>
